--- a/Nháp.xlsx
+++ b/Nháp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="1233">
   <si>
     <t>additional</t>
   </si>
@@ -1593,9 +1593,6 @@
     <t>colleague</t>
   </si>
   <si>
-    <t>đồng nghiệp</t>
-  </si>
-  <si>
     <t>commensurate</t>
   </si>
   <si>
@@ -1921,6 +1918,1809 @@
   </si>
   <si>
     <t>a b roát</t>
+  </si>
+  <si>
+    <t>trụ sở chính</t>
+  </si>
+  <si>
+    <t>headquarter</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>quốc gia</t>
+  </si>
+  <si>
+    <t>multinational</t>
+  </si>
+  <si>
+    <t>đa quốc gia</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>rooftop</t>
+  </si>
+  <si>
+    <t>pacific</t>
+  </si>
+  <si>
+    <t>recruit</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>decide</t>
+  </si>
+  <si>
+    <t>anyway</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>hire</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>passion</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>prior experience</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>even though</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>custodial</t>
+  </si>
+  <si>
+    <t>duty</t>
+  </si>
+  <si>
+    <t>pension</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>coworker</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>peasant</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>earning</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>buổi phỏng vấn</t>
+  </si>
+  <si>
+    <t>giám đốc</t>
+  </si>
+  <si>
+    <t>quản lý nhân sự</t>
+  </si>
+  <si>
+    <t>sân thượng</t>
+  </si>
+  <si>
+    <t>thái bình dương</t>
+  </si>
+  <si>
+    <t>tuyển dụng</t>
+  </si>
+  <si>
+    <t>môi giới, đại lý, chi nhánh</t>
+  </si>
+  <si>
+    <t>chức vụ</t>
+  </si>
+  <si>
+    <t>quyết định</t>
+  </si>
+  <si>
+    <t>dù sao</t>
+  </si>
+  <si>
+    <t>quảng bá</t>
+  </si>
+  <si>
+    <t>kinh doanh</t>
+  </si>
+  <si>
+    <t>thuê mướn</t>
+  </si>
+  <si>
+    <t>nghề nghiệp, sự nghiệp</t>
+  </si>
+  <si>
+    <t>kinh nghiệm trước đây</t>
+  </si>
+  <si>
+    <t>niềm đam mê</t>
+  </si>
+  <si>
+    <t>mặc dù</t>
+  </si>
+  <si>
+    <t>tiền công</t>
+  </si>
+  <si>
+    <t>đáng kinh ngạc</t>
+  </si>
+  <si>
+    <t>khả năng lãnh đạo</t>
+  </si>
+  <si>
+    <t>ko may mắn</t>
+  </si>
+  <si>
+    <t>sự cho</t>
+  </si>
+  <si>
+    <t>trông coi, giám hộ</t>
+  </si>
+  <si>
+    <t>lương hưu</t>
+  </si>
+  <si>
+    <t>cus tô đi ồ</t>
+  </si>
+  <si>
+    <t>nhiệm vụ</t>
+  </si>
+  <si>
+    <t>lợi ích</t>
+  </si>
+  <si>
+    <t>đồng nghiệp cùng team</t>
+  </si>
+  <si>
+    <t>đối đãi</t>
+  </si>
+  <si>
+    <t>nông dân, người nhà quê</t>
+  </si>
+  <si>
+    <t>hợp đồng</t>
+  </si>
+  <si>
+    <t>pa dừn</t>
+  </si>
+  <si>
+    <t>chức năng</t>
+  </si>
+  <si>
+    <t>earn</t>
+  </si>
+  <si>
+    <t>kiếm được</t>
+  </si>
+  <si>
+    <t>thu nhập</t>
+  </si>
+  <si>
+    <t>lợi nhuận, năng xuất</t>
+  </si>
+  <si>
+    <t>cung cấp</t>
+  </si>
+  <si>
+    <t>p rai ô</t>
+  </si>
+  <si>
+    <t>pho ren</t>
+  </si>
+  <si>
+    <t>dâu</t>
+  </si>
+  <si>
+    <t>way s</t>
+  </si>
+  <si>
+    <t>đi sai</t>
+  </si>
+  <si>
+    <t>ây dừn xi</t>
+  </si>
+  <si>
+    <t>ri c rút</t>
+  </si>
+  <si>
+    <t>p rô mâu</t>
+  </si>
+  <si>
+    <t>hai ờ</t>
+  </si>
+  <si>
+    <t>kơ ri ờ</t>
+  </si>
+  <si>
+    <t>áp pia</t>
+  </si>
+  <si>
+    <t>potential</t>
+  </si>
+  <si>
+    <t>pô ten sồ</t>
+  </si>
+  <si>
+    <t>tiềm năng</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>ứng viên</t>
+  </si>
+  <si>
+    <t>lobby</t>
+  </si>
+  <si>
+    <t>phòng chờ</t>
+  </si>
+  <si>
+    <t>opponent</t>
+  </si>
+  <si>
+    <t>đối thủ</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>lợi thế</t>
+  </si>
+  <si>
+    <t>delicately</t>
+  </si>
+  <si>
+    <t>tế nhị</t>
+  </si>
+  <si>
+    <t>attractive</t>
+  </si>
+  <si>
+    <t>có sức hấp dẫn</t>
+  </si>
+  <si>
+    <t>applicant</t>
+  </si>
+  <si>
+    <t>người nộp đơn</t>
+  </si>
+  <si>
+    <t>deserve</t>
+  </si>
+  <si>
+    <t>xứng đáng</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>cuộc thi</t>
+  </si>
+  <si>
+    <t>ambition</t>
+  </si>
+  <si>
+    <t>tham vọng</t>
+  </si>
+  <si>
+    <t>am bi sừn</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>tổng thể</t>
+  </si>
+  <si>
+    <t>pretend</t>
+  </si>
+  <si>
+    <t>giả vờ</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>người &gt;</t>
+  </si>
+  <si>
+    <t>spreadsheet</t>
+  </si>
+  <si>
+    <t>bảng tính</t>
+  </si>
+  <si>
+    <t>s p rét sít</t>
+  </si>
+  <si>
+    <t>plenty</t>
+  </si>
+  <si>
+    <t>nhiều</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capable </t>
+  </si>
+  <si>
+    <t>có khả năng</t>
+  </si>
+  <si>
+    <t>kếp ơ bồ</t>
+  </si>
+  <si>
+    <t>compile</t>
+  </si>
+  <si>
+    <t>biên dịch</t>
+  </si>
+  <si>
+    <t>efficient</t>
+  </si>
+  <si>
+    <t>có hiệu quả mà ko tốn nguyên liệu, time, năng lượng</t>
+  </si>
+  <si>
+    <t>ất fit sừn</t>
+  </si>
+  <si>
+    <t>embrace</t>
+  </si>
+  <si>
+    <t>ôm hôn, accept something enthusiastically</t>
+  </si>
+  <si>
+    <t>enthusiastically</t>
+  </si>
+  <si>
+    <t>nhiệt tình</t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>facilitate</t>
+  </si>
+  <si>
+    <t>tạo điều kiện, làm cho dễ dàng</t>
+  </si>
+  <si>
+    <t>fa xi li tết</t>
+  </si>
+  <si>
+    <t>consult</t>
+  </si>
+  <si>
+    <t>tham khảo ý kiến</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>a pờ ri xi ết</t>
+  </si>
+  <si>
+    <t>đánh giá</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>chiếm lấy, bắt lấy</t>
+  </si>
+  <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>nhà phê bình</t>
+  </si>
+  <si>
+    <t>despair</t>
+  </si>
+  <si>
+    <t>đít pe</t>
+  </si>
+  <si>
+    <t>tuyệt vọng</t>
+  </si>
+  <si>
+    <t>escort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hộ tống </t>
+  </si>
+  <si>
+    <t>ét cót</t>
+  </si>
+  <si>
+    <t>lead time</t>
+  </si>
+  <si>
+    <t>regulation</t>
+  </si>
+  <si>
+    <t>quy định</t>
+  </si>
+  <si>
+    <t>time giữa lúc bắt đầu và lúc hoàn thành</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>đều đặn, bình thường</t>
+  </si>
+  <si>
+    <t>stationery</t>
+  </si>
+  <si>
+    <t>đồ dùng văn phòng</t>
+  </si>
+  <si>
+    <t>bai ô lô j</t>
+  </si>
+  <si>
+    <t>ko leec</t>
+  </si>
+  <si>
+    <t>com men sua rết</t>
+  </si>
+  <si>
+    <t>3 che lơ</t>
+  </si>
+  <si>
+    <t>ất then</t>
+  </si>
+  <si>
+    <t>ri lít stic</t>
+  </si>
+  <si>
+    <t>pơ siu</t>
+  </si>
+  <si>
+    <t>đồng nghiệp cùng ngành</t>
+  </si>
+  <si>
+    <t>qua li phai</t>
+  </si>
+  <si>
+    <t>ký tên, đánh dấu, dấu hiệu</t>
+  </si>
+  <si>
+    <t>kon so</t>
+  </si>
+  <si>
+    <t>ơ door t</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>có hiệu quả như mong muốn</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>điều khiển, hướng dẫn</t>
+  </si>
+  <si>
+    <t>appoint</t>
+  </si>
+  <si>
+    <t>bổ nhiệm</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>toàn thế giới</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>sơ v</t>
+  </si>
+  <si>
+    <t>during</t>
+  </si>
+  <si>
+    <t>phục dịch</t>
+  </si>
+  <si>
+    <t>suốt trong</t>
+  </si>
+  <si>
+    <t>fled</t>
+  </si>
+  <si>
+    <t>chạy trốn</t>
+  </si>
+  <si>
+    <t>refuge</t>
+  </si>
+  <si>
+    <t>người tị nạn</t>
+  </si>
+  <si>
+    <t>re fiu</t>
+  </si>
+  <si>
+    <t>re fiu j</t>
+  </si>
+  <si>
+    <t>nơi ẩn náu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refugee </t>
+  </si>
+  <si>
+    <t>blue collar job</t>
+  </si>
+  <si>
+    <t>công việc chân tay vất vả</t>
+  </si>
+  <si>
+    <t>collar</t>
+  </si>
+  <si>
+    <t>cổ áo</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>sau cùng</t>
+  </si>
+  <si>
+    <t>plumber</t>
+  </si>
+  <si>
+    <t>thợ sửa ông nước</t>
+  </si>
+  <si>
+    <t>motivate</t>
+  </si>
+  <si>
+    <t>động viên</t>
+  </si>
+  <si>
+    <t>mâu t vết</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>nền kinh tế</t>
+  </si>
+  <si>
+    <t>courier</t>
+  </si>
+  <si>
+    <t>người vận chuyển</t>
+  </si>
+  <si>
+    <t>slave</t>
+  </si>
+  <si>
+    <t>nô lệ</t>
+  </si>
+  <si>
+    <t>s lây</t>
+  </si>
+  <si>
+    <t>barely</t>
+  </si>
+  <si>
+    <t>vừa đủ</t>
+  </si>
+  <si>
+    <t>be ly</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>đói nghèo</t>
+  </si>
+  <si>
+    <t>po vơ ty</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>đỉnh cao</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>pi k</t>
+  </si>
+  <si>
+    <t>giao hàng</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>top ph</t>
+  </si>
+  <si>
+    <t>khó khăn, bền, cứng, dai</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>nợ nần</t>
+  </si>
+  <si>
+    <t>đét t</t>
+  </si>
+  <si>
+    <t>collector</t>
+  </si>
+  <si>
+    <t>người sưu tầm</t>
+  </si>
+  <si>
+    <t>debt collector</t>
+  </si>
+  <si>
+    <t>người thu họ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">destiny </t>
+  </si>
+  <si>
+    <t>định mệnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>xây dựng</t>
+  </si>
+  <si>
+    <t>receptionist</t>
+  </si>
+  <si>
+    <t>lễ tân</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>người giám sát</t>
+  </si>
+  <si>
+    <t>vai s</t>
+  </si>
+  <si>
+    <t>recalling</t>
+  </si>
+  <si>
+    <t>nhớ lại</t>
+  </si>
+  <si>
+    <t>apprentice</t>
+  </si>
+  <si>
+    <t>học việc</t>
+  </si>
+  <si>
+    <t>ơ pren tít</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>kiến trúc</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>in đớt try</t>
+  </si>
+  <si>
+    <t>ngành công ngiệp, hết lòng</t>
+  </si>
+  <si>
+    <t>climb</t>
+  </si>
+  <si>
+    <t>c lam</t>
+  </si>
+  <si>
+    <t>leo lên</t>
+  </si>
+  <si>
+    <t>corporate</t>
+  </si>
+  <si>
+    <t>công ty to</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>bậc thang</t>
+  </si>
+  <si>
+    <t>ko p rệt</t>
+  </si>
+  <si>
+    <t>la đơ</t>
+  </si>
+  <si>
+    <t>couple year</t>
+  </si>
+  <si>
+    <t>vài năm</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>đáng giá</t>
+  </si>
+  <si>
+    <t>wərTH</t>
+  </si>
+  <si>
+    <t>secretary</t>
+  </si>
+  <si>
+    <t>thư ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guards </t>
+  </si>
+  <si>
+    <t>lính canh</t>
+  </si>
+  <si>
+    <t>ga d</t>
+  </si>
+  <si>
+    <t>ambassador</t>
+  </si>
+  <si>
+    <t>đại sứ</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>chủ tịch</t>
+  </si>
+  <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>nghỉ hưu</t>
+  </si>
+  <si>
+    <t>dinh thự</t>
+  </si>
+  <si>
+    <t>mansion</t>
+  </si>
+  <si>
+    <t>em 3 sa đơ</t>
+  </si>
+  <si>
+    <t>p re si đừn</t>
+  </si>
+  <si>
+    <t>ri thai ờ</t>
+  </si>
+  <si>
+    <t>men sừn</t>
+  </si>
+  <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>to tiếng</t>
+  </si>
+  <si>
+    <t>lao d</t>
+  </si>
+  <si>
+    <t>rolls his eyes</t>
+  </si>
+  <si>
+    <t>đảo mắt</t>
+  </si>
+  <si>
+    <t>shakes his head</t>
+  </si>
+  <si>
+    <t>lắc đầu</t>
+  </si>
+  <si>
+    <t>disbelief</t>
+  </si>
+  <si>
+    <t>không tin vào việc gì</t>
+  </si>
+  <si>
+    <t>đis bi li</t>
+  </si>
+  <si>
+    <t>incident</t>
+  </si>
+  <si>
+    <t>sự cố, biến cố</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>thành thật</t>
+  </si>
+  <si>
+    <t>react</t>
+  </si>
+  <si>
+    <t>phản ứng</t>
+  </si>
+  <si>
+    <t>ri ách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be upset </t>
+  </si>
+  <si>
+    <t>khó chịu</t>
+  </si>
+  <si>
+    <t>naughty</t>
+  </si>
+  <si>
+    <t>nghịch ngợm</t>
+  </si>
+  <si>
+    <t>na ty</t>
+  </si>
+  <si>
+    <t>butt</t>
+  </si>
+  <si>
+    <t>mông</t>
+  </si>
+  <si>
+    <t>pant</t>
+  </si>
+  <si>
+    <t>pen t</t>
+  </si>
+  <si>
+    <t>quần</t>
+  </si>
+  <si>
+    <t>spanking</t>
+  </si>
+  <si>
+    <t>đánh đòn</t>
+  </si>
+  <si>
+    <t>big deal</t>
+  </si>
+  <si>
+    <t>chuyện &gt;</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>dis ci p lin</t>
+  </si>
+  <si>
+    <t>kỷ luật</t>
+  </si>
+  <si>
+    <t>upbringing</t>
+  </si>
+  <si>
+    <t>sự dạy dỗ</t>
+  </si>
+  <si>
+    <t>fired</t>
+  </si>
+  <si>
+    <t>phai ờ</t>
+  </si>
+  <si>
+    <t>bị sa thải</t>
+  </si>
+  <si>
+    <t>đai a ry</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>kinh khủng</t>
+  </si>
+  <si>
+    <t>apparent</t>
+  </si>
+  <si>
+    <t>ơ pe rừn</t>
+  </si>
+  <si>
+    <t>rõ ràng</t>
+  </si>
+  <si>
+    <t>apparently</t>
+  </si>
+  <si>
+    <t>hình như</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>công việc, tình cảm</t>
+  </si>
+  <si>
+    <t>ất phe</t>
+  </si>
+  <si>
+    <t>spreading</t>
+  </si>
+  <si>
+    <t>truyền bá</t>
+  </si>
+  <si>
+    <t>s p rét</t>
+  </si>
+  <si>
+    <t>arrive</t>
+  </si>
+  <si>
+    <t>ơ rai</t>
+  </si>
+  <si>
+    <t>đến</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>th riu</t>
+  </si>
+  <si>
+    <t>xuyên qua</t>
+  </si>
+  <si>
+    <t>recognize</t>
+  </si>
+  <si>
+    <t>re kực nai</t>
+  </si>
+  <si>
+    <t>nhìn nhận</t>
+  </si>
+  <si>
+    <t>scent</t>
+  </si>
+  <si>
+    <t>sen t</t>
+  </si>
+  <si>
+    <t>hương thơm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gasoline </t>
+  </si>
+  <si>
+    <t>xăng</t>
+  </si>
+  <si>
+    <t>ga sô lin</t>
+  </si>
+  <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>thợ cơ khí</t>
+  </si>
+  <si>
+    <t>subtle</t>
+  </si>
+  <si>
+    <t>nod</t>
+  </si>
+  <si>
+    <t>sa tồ</t>
+  </si>
+  <si>
+    <t>na d</t>
+  </si>
+  <si>
+    <t>gật đầu</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>số lượng</t>
+  </si>
+  <si>
+    <t>budge</t>
+  </si>
+  <si>
+    <t>bớt j</t>
+  </si>
+  <si>
+    <t>nhúc nhích</t>
+  </si>
+  <si>
+    <t>put away</t>
+  </si>
+  <si>
+    <t>cất đi</t>
+  </si>
+  <si>
+    <t>goggles</t>
+  </si>
+  <si>
+    <t>go gồ</t>
+  </si>
+  <si>
+    <t>kính bảo hộ</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>sai ừn</t>
+  </si>
+  <si>
+    <t>khoa học</t>
+  </si>
+  <si>
+    <t>grabs</t>
+  </si>
+  <si>
+    <t>nắm lấy</t>
+  </si>
+  <si>
+    <t>recklessly</t>
+  </si>
+  <si>
+    <t>liều lĩnh</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>a d</t>
+  </si>
+  <si>
+    <t>kỳ quặc</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>xịt nước</t>
+  </si>
+  <si>
+    <t>unfazed</t>
+  </si>
+  <si>
+    <t>un phây</t>
+  </si>
+  <si>
+    <t>không hề bối rối</t>
+  </si>
+  <si>
+    <t>calmly</t>
+  </si>
+  <si>
+    <t>điềm tĩnh</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>động cơ</t>
+  </si>
+  <si>
+    <t>seems to be</t>
+  </si>
+  <si>
+    <t>có vẻ như</t>
+  </si>
+  <si>
+    <t>but t</t>
+  </si>
+  <si>
+    <t>réc k rựt s ly</t>
+  </si>
+  <si>
+    <t>stir-fry</t>
+  </si>
+  <si>
+    <t>s tơ f lai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>devein</t>
+  </si>
+  <si>
+    <t>đi vên</t>
+  </si>
+  <si>
+    <t>thoroughly</t>
+  </si>
+  <si>
+    <t>thô râu ly</t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>corn-flour</t>
+  </si>
+  <si>
+    <t>coon</t>
+  </si>
+  <si>
+    <t>coated</t>
+  </si>
+  <si>
+    <t>kâu ted</t>
+  </si>
+  <si>
+    <t>thin slices</t>
+  </si>
+  <si>
+    <t>s lai sẹt</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>skillet</t>
+  </si>
+  <si>
+    <t>chopped</t>
+  </si>
+  <si>
+    <t>chop</t>
+  </si>
+  <si>
+    <t>ginger</t>
+  </si>
+  <si>
+    <t>jin jer</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>approximately</t>
+  </si>
+  <si>
+    <t>sauce</t>
+  </si>
+  <si>
+    <t>sọt s</t>
+  </si>
+  <si>
+    <t>broth</t>
+  </si>
+  <si>
+    <t>tablespoons</t>
+  </si>
+  <si>
+    <t>soy</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>se sừm mi</t>
+  </si>
+  <si>
+    <t>whisk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wisk s k</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>pickled</t>
+  </si>
+  <si>
+    <t>chili</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>to accompany your dish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>suitable accompaniment</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>soy sauce</t>
+  </si>
+  <si>
+    <t>champagne flute</t>
+  </si>
+  <si>
+    <t>f lut t</t>
+  </si>
+  <si>
+    <t>flute</t>
+  </si>
+  <si>
+    <t>gatherings</t>
+  </si>
+  <si>
+    <t>drunk</t>
+  </si>
+  <si>
+    <t>starving</t>
+  </si>
+  <si>
+    <t>s ta ving</t>
+  </si>
+  <si>
+    <t>right away</t>
+  </si>
+  <si>
+    <t>ruin</t>
+  </si>
+  <si>
+    <t>fool</t>
+  </si>
+  <si>
+    <t>phu</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>ru d</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>thớt s ty</t>
+  </si>
+  <si>
+    <t>sớp</t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
+    <t>băn ch</t>
+  </si>
+  <si>
+    <t>go ahead</t>
+  </si>
+  <si>
+    <t>artwork</t>
+  </si>
+  <si>
+    <t>flattering</t>
+  </si>
+  <si>
+    <t>constantly</t>
+  </si>
+  <si>
+    <t>wears</t>
+  </si>
+  <si>
+    <t>where ờ s</t>
+  </si>
+  <si>
+    <t>behave</t>
+  </si>
+  <si>
+    <t>approval</t>
+  </si>
+  <si>
+    <t>app pru vồ</t>
+  </si>
+  <si>
+    <t>attention</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>held back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mental </t>
+  </si>
+  <si>
+    <t>disorder</t>
+  </si>
+  <si>
+    <t>perhaps</t>
+  </si>
+  <si>
+    <t>dis so đơ</t>
+  </si>
+  <si>
+    <t>extracurricular</t>
+  </si>
+  <si>
+    <t>vary</t>
+  </si>
+  <si>
+    <t>ve ry</t>
+  </si>
+  <si>
+    <t>assistance</t>
+  </si>
+  <si>
+    <t>as well as</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>departure</t>
+  </si>
+  <si>
+    <t>đê pa chờ</t>
+  </si>
+  <si>
+    <t>arrangement</t>
+  </si>
+  <si>
+    <t>in order</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>ơ range mừn</t>
+  </si>
+  <si>
+    <t>admissions</t>
+  </si>
+  <si>
+    <t>ất mis sừn</t>
+  </si>
+  <si>
+    <t>ba chê lơ</t>
+  </si>
+  <si>
+    <t>prerequisite</t>
+  </si>
+  <si>
+    <t>p ri re quy sệt</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>đê li kết li</t>
+  </si>
+  <si>
+    <t>đi sớt</t>
+  </si>
+  <si>
+    <t>to deal with</t>
+  </si>
+  <si>
+    <t>đối phó vs</t>
+  </si>
+  <si>
+    <t>preSHər</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
+  <si>
+    <t>nghi ngờ</t>
+  </si>
+  <si>
+    <t>đao t</t>
+  </si>
+  <si>
+    <t>sức ép, áp lực</t>
+  </si>
+  <si>
+    <t>corporation</t>
+  </si>
+  <si>
+    <t>in charge</t>
+  </si>
+  <si>
+    <t>jumped on the opportunity</t>
+  </si>
+  <si>
+    <t>accomplished</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>desire</t>
+  </si>
+  <si>
+    <t>desired</t>
+  </si>
+  <si>
+    <t>dedicate</t>
+  </si>
+  <si>
+    <t>stay dedicated</t>
+  </si>
+  <si>
+    <t>cooperating</t>
+  </si>
+  <si>
+    <t>particular</t>
+  </si>
+  <si>
+    <t>compensate</t>
+  </si>
+  <si>
+    <t>coordinated</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>cater</t>
+  </si>
+  <si>
+    <t>caught sight</t>
+  </si>
+  <si>
+    <t>once i found this out</t>
+  </si>
+  <si>
+    <t>out on a date</t>
+  </si>
+  <si>
+    <t>furious</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>compromise</t>
+  </si>
+  <si>
+    <t>resign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deliberately </t>
+  </si>
+  <si>
+    <t>cân nhắc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opportunity </t>
+  </si>
+  <si>
+    <t>cơ hội, dịp tốt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agenda </t>
+  </si>
+  <si>
+    <t>a list of matters to be discussed at a meeting</t>
+  </si>
+  <si>
+    <t>aspire</t>
+  </si>
+  <si>
+    <t>ất s pai</t>
+  </si>
+  <si>
+    <t>đê li bơ rết li</t>
+  </si>
+  <si>
+    <t>cha j</t>
+  </si>
+  <si>
+    <t>óp po tu ni ty</t>
+  </si>
+  <si>
+    <t>ơ gien đa</t>
+  </si>
+  <si>
+    <t>a com p lít</t>
+  </si>
+  <si>
+    <t>đi zai ờ</t>
+  </si>
+  <si>
+    <t>đe đi kết</t>
+  </si>
+  <si>
+    <t>co op pe rây ting</t>
+  </si>
+  <si>
+    <t>pơ tik kiu lờ</t>
+  </si>
+  <si>
+    <t>com pừn sết</t>
+  </si>
+  <si>
+    <t>co or đi nây tựt</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>kây tờ</t>
+  </si>
+  <si>
+    <t>cát</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>ấp p râu ch</t>
+  </si>
+  <si>
+    <t>ơ f rây</t>
+  </si>
+  <si>
+    <t>ăn em p loy mừn</t>
+  </si>
+  <si>
+    <t>com p ro mai</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>tập đoàn</t>
+  </si>
+  <si>
+    <t>khao khát</t>
+  </si>
+  <si>
+    <t>phụ trách</t>
+  </si>
+  <si>
+    <t>chớp lấy cơ hội</t>
+  </si>
+  <si>
+    <t>ri zai</t>
+  </si>
+  <si>
+    <t>hoàn thành = finished</t>
+  </si>
+  <si>
+    <t>mong muốn</t>
+  </si>
+  <si>
+    <t>dâng hiến</t>
+  </si>
+  <si>
+    <t>luôn tận tâm</t>
+  </si>
+  <si>
+    <t>phối hợp</t>
+  </si>
+  <si>
+    <t>cụ thể</t>
+  </si>
+  <si>
+    <t>đền bù</t>
+  </si>
+  <si>
+    <t>hợp tác</t>
+  </si>
+  <si>
+    <t>chịu trách nhiệm</t>
+  </si>
+  <si>
+    <t>thô lỗ</t>
+  </si>
+  <si>
+    <t>người phục vụ</t>
+  </si>
+  <si>
+    <t>authorize</t>
+  </si>
+  <si>
+    <t>ủy quyền</t>
+  </si>
+  <si>
+    <t>bắt gặp</t>
+  </si>
+  <si>
+    <t>đến gần</t>
+  </si>
+  <si>
+    <t>hẹn hò</t>
+  </si>
+  <si>
+    <t>giận giữ</t>
+  </si>
+  <si>
+    <t>thất nghiệp</t>
+  </si>
+  <si>
+    <t>sợ</t>
+  </si>
+  <si>
+    <t>từ chức</t>
+  </si>
+  <si>
+    <t>thỏa hiệp</t>
+  </si>
+  <si>
+    <t>yell</t>
+  </si>
+  <si>
+    <t>sự thăng tiến</t>
+  </si>
+  <si>
+    <t>se c rết te ry</t>
+  </si>
+  <si>
+    <t>powerfully</t>
+  </si>
+  <si>
+    <t>loudly</t>
+  </si>
+  <si>
+    <t>polite</t>
+  </si>
+  <si>
+    <t>once in a while</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>peaceful</t>
+  </si>
+  <si>
+    <t>outfit</t>
+  </si>
+  <si>
+    <t>annoy</t>
+  </si>
+  <si>
+    <t>attitude</t>
+  </si>
+  <si>
+    <t>jealous</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>so cruel</t>
+  </si>
+  <si>
+    <t>cheater</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>forgive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pleasure </t>
+  </si>
+  <si>
+    <t>niềm vui</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +3765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1975,6 +3775,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2255,55 +4056,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK47"/>
+  <dimension ref="A1:AM154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG35" sqref="AG35"/>
+    <sheetView tabSelected="1" topLeftCell="I112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U120" sqref="U120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="3" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="3" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="2"/>
     <col min="17" max="17" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="3" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="2"/>
-    <col min="21" max="21" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="3" customWidth="1"/>
     <col min="24" max="24" width="9.140625" style="2"/>
     <col min="25" max="25" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.140625" style="3" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="2"/>
     <col min="29" max="29" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="2"/>
-    <col min="32" max="32" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="3"/>
-    <col min="35" max="35" width="9.140625" style="2"/>
-    <col min="36" max="36" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="3"/>
-    <col min="38" max="16384" width="9.140625" style="2"/>
+    <col min="30" max="30" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="2"/>
+    <col min="33" max="33" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="3"/>
+    <col min="36" max="36" width="9.140625" style="2"/>
+    <col min="37" max="37" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="3"/>
+    <col min="40" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2335,2015 +4138,4014 @@
       <c r="AC1" s="1">
         <v>8</v>
       </c>
-      <c r="AD1" s="4"/>
-      <c r="AF1" s="1">
+      <c r="AE1" s="4"/>
+      <c r="AG1" s="1">
         <v>9</v>
       </c>
-      <c r="AH1" s="4"/>
-      <c r="AJ1" s="1">
+      <c r="AI1" s="4"/>
+      <c r="AK1" s="1">
         <v>10</v>
       </c>
-      <c r="AK1" s="4"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM1" s="4"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>612</v>
+        <v>176</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>617</v>
+        <v>293</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>440</v>
+        <v>386</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="AG3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="AH3" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI3" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>622</v>
+        <v>342</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>441</v>
+        <v>388</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>603</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="AK9" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>604</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="AK10" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="V12" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="V15" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="AK12" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="AH13" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="AJ13" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="AK13" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="AK14" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="W15" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AK15" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AK15" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM15" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>961</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>613</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="V16" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z16" s="2" t="s">
+      <c r="W18" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z22" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="AA16" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="AJ16" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="AK16" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="AK17" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="AK18" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AK19" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG20" s="2" t="s">
+      <c r="AA22" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Z25"/>
+      <c r="AC25" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Z26"/>
+      <c r="AC26" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH26" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="AH20" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="AJ20" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="AK20" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="AH21" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="AK21" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="AI26" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1032</v>
+      </c>
+      <c r="V27"/>
+      <c r="Y27" t="s">
+        <v>1077</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Z28"/>
+      <c r="AC28" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Z29"/>
+      <c r="AC29" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="V30"/>
+      <c r="Y30" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="V31"/>
+      <c r="Y31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH22" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="AJ22" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="AK22" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="AH23" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ23" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="AK23" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH24" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="AJ24" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK24" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="AH25" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="AJ25" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="AK25" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF26" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="AH26" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="AK26" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AD27" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF27" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="AG27" s="2" t="s">
+      <c r="G32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="V32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AM32" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V33" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>819</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AD33"/>
+      <c r="AE33" s="5"/>
+      <c r="AG33" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH33" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="AH27" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="AJ27" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AK27" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="AF28" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="AJ28" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="AK28" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD29" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF29" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH29" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ29" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="AK29" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="AD30" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="AF30" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="AH30" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="AJ30" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="AK30" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O31" s="3" t="s">
+      <c r="AI33" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM33" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH31" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="AJ31" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AK31" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="AH32" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="AJ32" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="AK32" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="I34" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V34" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AD34"/>
+      <c r="AE34" s="5"/>
+      <c r="AG34" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="AM34" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH33" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="AJ33" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AK33" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF34" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AG34" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="AH34" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="AJ34" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="AK34" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF35" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="AH35" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="AJ35" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="AK35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V35"/>
+      <c r="AC35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AD35"/>
+      <c r="AE35" s="5"/>
+      <c r="AG35" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AK35" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM35" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF36" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="AH36" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="AJ36" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="AK36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V36"/>
+      <c r="AC36" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AD36"/>
+      <c r="AE36" s="5"/>
+      <c r="AG36" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="AK36" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM36" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>609</v>
+        <v>932</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF37" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="AH37" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ37" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="AK37" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK37" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AF38" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH38" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="AJ38" s="2" t="s">
+      <c r="AM37" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="AK38" s="3" t="s">
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1049</v>
+      </c>
+      <c r="V38" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AD38"/>
+      <c r="AG38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AH38"/>
+      <c r="AK38" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ39" s="2" t="s">
+      <c r="AL38" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="AM38" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="AK39" s="3" t="s">
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1051</v>
+      </c>
+      <c r="V39"/>
+      <c r="AC39" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AK39" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ40" s="2" t="s">
+      <c r="AM39" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="AK40" s="3" t="s">
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1052</v>
+      </c>
+      <c r="V40"/>
+      <c r="AC40" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AD40"/>
+      <c r="AE40" s="5"/>
+      <c r="AG40" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AH40"/>
+      <c r="AK40" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ41" s="2" t="s">
+      <c r="AL40" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="AM40" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1053</v>
+      </c>
+      <c r="V41" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AD41"/>
+      <c r="AE41" s="5"/>
+      <c r="AG41" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AH41"/>
+      <c r="AK41" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="AK41" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ42" s="2" t="s">
+      <c r="AL41" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="AM41" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="AK42" s="3" t="s">
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="U42" t="s">
+        <v>1055</v>
+      </c>
+      <c r="V42"/>
+      <c r="AC42" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AD42"/>
+      <c r="AE42" s="5"/>
+      <c r="AG42" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AH42"/>
+      <c r="AK42" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ43" s="2" t="s">
+      <c r="AM42" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="AK43" s="3" t="s">
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U43" t="s">
+        <v>1056</v>
+      </c>
+      <c r="V43"/>
+      <c r="AC43" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AD43"/>
+      <c r="AE43" s="5"/>
+      <c r="AG43" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AK43" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ44" s="2" t="s">
+      <c r="AM43" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="AK44" s="3" t="s">
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="U44" t="s">
+        <v>1057</v>
+      </c>
+      <c r="V44"/>
+      <c r="AC44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AD44"/>
+      <c r="AE44" s="5"/>
+      <c r="AG44" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AK44" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ45" s="2" t="s">
+      <c r="AM44" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="AK45" s="3" t="s">
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="V45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AE45" s="5"/>
+      <c r="AG45" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AH45"/>
+      <c r="AK45" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ46" s="2" t="s">
+      <c r="AM45" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="AK46" s="3" t="s">
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="U46" t="s">
+        <v>1060</v>
+      </c>
+      <c r="V46" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AH46"/>
+      <c r="AK46" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ47" s="2" t="s">
+      <c r="AM46" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="AK47" s="3" t="s">
-        <v>596</v>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="U47" t="s">
+        <v>1062</v>
+      </c>
+      <c r="V47"/>
+      <c r="AK47" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="U48" t="s">
+        <v>1063</v>
+      </c>
+      <c r="V48"/>
+      <c r="AK48" t="s">
+        <v>563</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="49" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="Q49" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="U49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="V49"/>
+      <c r="AK49" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="50" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="Q50" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U50" t="s">
+        <v>1065</v>
+      </c>
+      <c r="V50"/>
+      <c r="AK50" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AL50"/>
+    </row>
+    <row r="51" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="Q51" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="U51" t="s">
+        <v>1066</v>
+      </c>
+      <c r="V51"/>
+    </row>
+    <row r="52" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="Q52" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="U52" t="s">
+        <v>1067</v>
+      </c>
+      <c r="V52"/>
+    </row>
+    <row r="53" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="U53" t="s">
+        <v>1068</v>
+      </c>
+      <c r="V53"/>
+    </row>
+    <row r="54" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="U54" t="s">
+        <v>1069</v>
+      </c>
+      <c r="V54"/>
+    </row>
+    <row r="55" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="U55" t="s">
+        <v>1070</v>
+      </c>
+      <c r="V55"/>
+    </row>
+    <row r="56" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="U56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="V56"/>
+    </row>
+    <row r="57" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="U57" t="s">
+        <v>1072</v>
+      </c>
+      <c r="V57" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="58" spans="17:38" x14ac:dyDescent="0.25">
+      <c r="U58" t="s">
+        <v>1074</v>
+      </c>
+      <c r="V58"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>11</v>
+      </c>
+      <c r="E113" s="2">
+        <v>12</v>
+      </c>
+      <c r="I113" s="2">
+        <v>13</v>
+      </c>
+      <c r="M113" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="Q122" s="2" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q124" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="Q125" s="2" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O127" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="S131" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/Nháp.xlsx
+++ b/Nháp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="1396">
   <si>
     <t>additional</t>
   </si>
@@ -357,9 +357,6 @@
     <t>reflect</t>
   </si>
   <si>
-    <t>phản chiếu</t>
-  </si>
-  <si>
     <t>shout</t>
   </si>
   <si>
@@ -2968,9 +2965,6 @@
   </si>
   <si>
     <t>re kực nai</t>
-  </si>
-  <si>
-    <t>nhìn nhận</t>
   </si>
   <si>
     <t>scent</t>
@@ -3721,6 +3715,629 @@
   </si>
   <si>
     <t>niềm vui</t>
+  </si>
+  <si>
+    <t>winky</t>
+  </si>
+  <si>
+    <t>miserable</t>
+  </si>
+  <si>
+    <t>childhood</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>dishonest</t>
+  </si>
+  <si>
+    <t>silly</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>pathetic</t>
+  </si>
+  <si>
+    <t>coward</t>
+  </si>
+  <si>
+    <t>peed</t>
+  </si>
+  <si>
+    <t>mature</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>sense of humor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innocent </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ngây thơ, ngay thẳng, vô tội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elegant </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">right there and then </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pô lai t</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ân noi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>je les</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>as shame d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c ru ồ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>giu ty</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nê ga típ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pây shen t</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ple sher</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mít zơ bồ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>in no xen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ơ gly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pơ the tik</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>e lê gant</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pitiful</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kao ward</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pi d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>grateful</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>biết ơn</t>
+  </si>
+  <si>
+    <t>mất CHo͝or</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mạnh mẽ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ầm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ĩ</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lịch sự</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 lần tại 1 thời điểm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tò mò</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yên bình</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>trang phục</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>thái độ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>làm phiền</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ghen tuông, ghen tị</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hổ thẹn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tàn nhẫn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kẻ lừa đảo, dối trá</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tội lỗi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tiêu cực</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kiên nhẫn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tha lỗi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nháy mắt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>buồn rầu, khổ sở</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>thời thơ ấu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xấu xí</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hẹn hò</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chuyên gia, thông thạo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ko thành thật</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ngớ ngẩn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>des p rết</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tuyệt vọng</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>making people feel sympathy</t>
+  </si>
+  <si>
+    <t>nhát gan</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tiểu tiện</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ngay sau đó</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>trưởng thành</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>khiếu hài hước</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>thảm hại</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sense</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nhìn nhận, nhận biết</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>giác quan</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sens</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hào phóng, rộng lượng</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sang trọng</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>phản chiếu, ngẫm ngh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ĩ</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vivid</t>
+  </si>
+  <si>
+    <t>scenery</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>wavy</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>awe</t>
+  </si>
+  <si>
+    <t>stare</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>gaze</t>
+  </si>
+  <si>
+    <t>adorable</t>
+  </si>
+  <si>
+    <t>pierce</t>
+  </si>
+  <si>
+    <t>pierced</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sweating</t>
+  </si>
+  <si>
+    <t>heart began to race</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>wisdom</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>stubborn</t>
+  </si>
+  <si>
+    <t>realize</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>conservative</t>
+  </si>
+  <si>
+    <t>apprehensive</t>
+  </si>
+  <si>
+    <t>towards</t>
+  </si>
+  <si>
+    <t>regret</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>magnetic force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">witty </t>
+  </si>
+  <si>
+    <t>awkward</t>
+  </si>
+  <si>
+    <t>nervous</t>
+  </si>
+  <si>
+    <t>si nơ ry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>way vy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ben ch</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ste r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nô tít</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gây z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ơ door rơ ble</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pi er</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ang zai ety</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pe nic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s wet ting</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dis ci zừn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ri lai z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a pri hen sip</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ri gret</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>aNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ɡə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pho s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>perfume</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pơ fy ùm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ner vês</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Khung cảnh</t>
+  </si>
+  <si>
+    <t>sống động</t>
+  </si>
+  <si>
+    <t>bùng tay; something that is thin to break suddenly and quickly with a cracking sound</t>
+  </si>
+  <si>
+    <t>dợn sóng</t>
+  </si>
+  <si>
+    <t>ghế băng dài</t>
+  </si>
+  <si>
+    <t>kinh ngạc</t>
+  </si>
+  <si>
+    <t>nhìn chằm chằm</t>
+  </si>
+  <si>
+    <t>để ý</t>
+  </si>
+  <si>
+    <t>cái nhìn</t>
+  </si>
+  <si>
+    <t>đáng yêu</t>
+  </si>
+  <si>
+    <t>khoan</t>
+  </si>
+  <si>
+    <t>lấp đầy</t>
+  </si>
+  <si>
+    <t>sự lo ngại</t>
+  </si>
+  <si>
+    <t>hoảng loạn</t>
+  </si>
+  <si>
+    <t>đổ mồ hôi</t>
+  </si>
+  <si>
+    <t>trái tim bắt đầu loạn nhịp</t>
+  </si>
+  <si>
+    <t>phán quyết</t>
+  </si>
+  <si>
+    <t>sự khôn ngoan</t>
+  </si>
+  <si>
+    <t>nghiêm trọng</t>
+  </si>
+  <si>
+    <t>bướng bỉnh</t>
+  </si>
+  <si>
+    <t>nhận ra</t>
+  </si>
+  <si>
+    <t>buồn bã</t>
+  </si>
+  <si>
+    <t>thận trọng</t>
+  </si>
+  <si>
+    <t>e sợ</t>
+  </si>
+  <si>
+    <t>hướng tới</t>
+  </si>
+  <si>
+    <t>lực từ</t>
+  </si>
+  <si>
+    <t>dí dỏm</t>
+  </si>
+  <si>
+    <t>nước hoa</t>
+  </si>
+  <si>
+    <t>khó xử</t>
+  </si>
+  <si>
+    <t>lo lắng</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>sự hối tiếc, hối hận</t>
+  </si>
+  <si>
+    <t>or werd</t>
   </si>
 </sst>
 </file>
@@ -3730,7 +4347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3743,6 +4360,20 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4058,11 +4689,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U120" sqref="U120"/>
+    <sheetView tabSelected="1" topLeftCell="X128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA137" sqref="AA137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -4085,11 +4716,11 @@
     <col min="19" max="19" width="9.140625" style="3" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="2"/>
     <col min="21" max="21" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="3" customWidth="1"/>
     <col min="24" max="24" width="9.140625" style="2"/>
-    <col min="25" max="25" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.140625" style="3" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="2"/>
     <col min="29" max="29" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -4106,7 +4737,7 @@
     <col min="40" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -4148,7 +4779,7 @@
       </c>
       <c r="AM1" s="4"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4159,61 +4790,61 @@
         <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="Q2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="U2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AC2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="AG2" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM2" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4227,61 +4858,61 @@
         <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="M3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="Q3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="U3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="AE3" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="AG3" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AK3" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AM3" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="AM3" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4289,63 +4920,63 @@
         <v>62</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="U4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="Y4" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="AC4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="AG4" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AK4" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AM4" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="AM4" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -4357,58 +4988,58 @@
         <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="M5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="Q5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="U5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="Y5" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="AG5" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AK5" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AM5" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="AM5" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -4422,58 +5053,58 @@
         <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="M6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="Q6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="U6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="Y6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AA6" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="AC6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="AE6" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="AG6" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AK6" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="AM6" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="AL6" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4487,57 +5118,57 @@
         <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="M7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="Q7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="U7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="Y7" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA7" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="AC7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="AG7" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -4546,61 +5177,61 @@
         <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="M8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="Q8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="U8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="Y8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA8" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="AC8" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="AG8" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK8" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM8" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="AM8" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -4608,72 +5239,72 @@
         <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="M9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="Q9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="U9" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="Y9" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC9" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="AG9" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -4685,55 +5316,55 @@
         <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="U10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="Y10" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA10" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="AC10" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AK10" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AM10" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="AL10" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="AM10" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -4744,60 +5375,60 @@
         <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="M11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="Q11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="U11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="Y11" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA11" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AA11" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="AC11" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AK11" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM11" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="AM11" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -4809,52 +5440,52 @@
         <v>77</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="Q12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="U12" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y12" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA12" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="AC12" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE12" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="AE12" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="AG12" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -4868,52 +5499,52 @@
         <v>79</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="Q13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="U13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="Y13" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA13" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="AA13" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="AC13" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE13" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="AE13" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="AG13" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AI13" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="AI13" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="AK13" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM13" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="AM13" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -4924,52 +5555,52 @@
         <v>80</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="Q14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="U14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="Y14" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="AC14" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="AE14" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="AG14" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AI14" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="AI14" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="AK14" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -4983,58 +5614,58 @@
         <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="Q15" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="Y15" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA15" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="Z15" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="AC15" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE15" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="AE15" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="AG15" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK15" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM15" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AM15" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -5045,61 +5676,61 @@
         <v>84</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="M16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="Q16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="U16" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="W16" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="Y16" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA16" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="AA16" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="AC16" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG16" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AI16" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="AH16" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="AK16" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AM16" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="AM16" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:39">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -5113,49 +5744,49 @@
         <v>86</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="Q17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="U17" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W17" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="Y17" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA17" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="AC17" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AK17" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AM17" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="AM17" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -5166,55 +5797,55 @@
         <v>88</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U18" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="W18" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="Y18" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG18" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI18" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="AI18" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="AK18" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="AM18" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="AM18" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -5225,64 +5856,64 @@
         <v>89</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="Q19" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG19" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="AI19" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="AH19" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="AK19" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="AM19" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AM19" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -5296,55 +5927,55 @@
         <v>92</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="U20" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y20" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA20" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="AC20" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG20" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI20" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="AI20" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="AK20" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM20" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="AM20" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:39">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -5355,69 +5986,69 @@
         <v>93</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="M21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="Q21" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="U21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="Y21" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA21" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="Z21" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="AC21" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG21" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AI21" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="AI21" s="3" t="s">
-        <v>467</v>
-      </c>
       <c r="AK21" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM21" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="AM21" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:39">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>36</v>
@@ -5429,58 +6060,58 @@
         <v>95</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="U22" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y22" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA22" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="Z22" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="AC22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE22" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AE22" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="AG22" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK22" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="AM22" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="AL22" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="AM22" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -5494,58 +6125,58 @@
         <v>98</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="M23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="Q23" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U23" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="W23" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="Y23" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA23" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="Z23" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="AC23" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE23" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="AE23" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="AG23" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI23" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="AI23" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="AK23" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="AM23" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="AM23" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -5556,49 +6187,49 @@
         <v>99</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="Q24" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U24" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="Y24" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="AC24" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG24" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AI24" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="AI24" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="AK24" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AM24" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="AM24" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:39">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -5612,53 +6243,53 @@
         <v>101</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="M25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="Q25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="U25" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="W25" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="W25" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="Y25" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="Z25"/>
       <c r="AC25" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE25" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AE25" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="AG25" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="AI25" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="AI25" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="AK25" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="AM25" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AM25" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:39">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -5672,56 +6303,56 @@
         <v>103</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="M26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="Q26" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U26" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="V26" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="Y26" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Z26"/>
       <c r="AC26" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE26" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="AE26" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="AG26" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI26" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="AH26" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="AI26" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="AK26" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AM26" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -5735,44 +6366,44 @@
         <v>105</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="M27" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="Q27" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U27" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="V27"/>
       <c r="Y27" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="Z27" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AK27" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM27" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AM27" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:39">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -5783,56 +6414,56 @@
         <v>107</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="M28" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="Q28" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="S28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="U28" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="V28" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="Y28" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="Z28"/>
       <c r="AC28" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE28" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="AE28" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="AG28" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AI28" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AI28" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="AK28" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AM28" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="AM28" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -5840,53 +6471,53 @@
         <v>108</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="M29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="Q29" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U29" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="V29" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="Y29" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="Z29"/>
       <c r="AC29" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE29" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AE29" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="AG29" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AI29" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="AI29" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="AK29" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AM29" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="AM29" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:39">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -5900,56 +6531,56 @@
         <v>110</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="M30" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S30" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="U30" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="V30"/>
       <c r="Y30" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Z30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AC30" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE30" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="AE30" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="AG30" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI30" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="AI30" s="3" t="s">
-        <v>483</v>
-      </c>
       <c r="AK30" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -5960,106 +6591,106 @@
         <v>111</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>112</v>
+        <v>1310</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="Q31" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="U31" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="V31"/>
       <c r="Y31" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Z31" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AC31" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE31" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="AE31" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="AG31" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AI31" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="AI31" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="AK31" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM31" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="AM31" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:39">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="I32" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="U32" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="V32" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="Y32" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="Z32" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AC32" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE32" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="AE32" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="AG32" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="AI32" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="AI32" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="AK32" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="AM32" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="AM32" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
@@ -6067,60 +6698,60 @@
         <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="I33" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>963</v>
-      </c>
       <c r="Q33" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="R33" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="S33" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>980</v>
-      </c>
       <c r="U33" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="V33" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="Y33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Z33" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AC33" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AD33"/>
       <c r="AE33" s="5"/>
       <c r="AG33" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AI33" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AK33" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AM33" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="AM33" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
@@ -6128,746 +6759,746 @@
         <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>966</v>
-      </c>
       <c r="Q34" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="R34" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>982</v>
-      </c>
       <c r="S34" s="3" t="s">
-        <v>983</v>
+        <v>1305</v>
       </c>
       <c r="U34" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="V34" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="Y34" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="Z34" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AC34" t="s">
         <v>1089</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>1091</v>
       </c>
       <c r="AD34"/>
       <c r="AE34" s="5"/>
       <c r="AG34" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AI34" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="AI34" s="3" t="s">
-        <v>490</v>
-      </c>
       <c r="AK34" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="AM34" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="AM34" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>923</v>
-      </c>
       <c r="E35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="I35" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>968</v>
-      </c>
       <c r="Q35" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="S35" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>986</v>
-      </c>
       <c r="U35" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="V35"/>
       <c r="AC35" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AD35"/>
       <c r="AE35" s="5"/>
       <c r="AG35" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI35" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="AI35" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="AK35" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AM35" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="AM35" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="E36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="I36" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>970</v>
-      </c>
       <c r="Q36" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>989</v>
-      </c>
       <c r="S36" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="U36" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="V36"/>
       <c r="AC36" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AD36"/>
       <c r="AE36" s="5"/>
       <c r="AG36" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AM36" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AG37" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="AI36" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK36" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="AM36" s="3" t="s">
+      <c r="AI37" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="AK37" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="AM37" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="J37" s="2" t="s">
+      <c r="G38" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="Q37" s="2" t="s">
+      <c r="J38" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="S37" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="R38" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="U38" t="s">
         <v>1047</v>
       </c>
-      <c r="V37" t="s">
+      <c r="V38" t="s">
         <v>1048</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AC38" t="s">
         <v>1094</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AG37" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="AI37" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="AK37" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="AM37" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="U38" t="s">
-        <v>1049</v>
-      </c>
-      <c r="V38" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>1096</v>
       </c>
       <c r="AD38"/>
       <c r="AG38" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AH38"/>
       <c r="AK38" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AL38" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AM38" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="AL38" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="AM38" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:39">
       <c r="E39" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>937</v>
-      </c>
       <c r="Q39" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="R39" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>995</v>
-      </c>
       <c r="S39" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="U39" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="V39"/>
       <c r="AC39" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AD39" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AG39" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AH39" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AK39" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AM39" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="AM39" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:39">
       <c r="E40" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>940</v>
-      </c>
       <c r="Q40" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="U40" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="V40"/>
       <c r="AC40" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AD40"/>
       <c r="AE40" s="5"/>
       <c r="AG40" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AH40"/>
       <c r="AK40" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AL40" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AM40" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
       <c r="E41" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>942</v>
-      </c>
       <c r="Q41" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="S41" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>1001</v>
-      </c>
       <c r="U41" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="V41" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AC41" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AD41"/>
       <c r="AE41" s="5"/>
       <c r="AG41" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AH41"/>
       <c r="AK41" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AL41" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="AM41" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="AL41" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="AM41" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:39">
       <c r="E42" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>945</v>
-      </c>
       <c r="Q42" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="U42" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="V42"/>
       <c r="AC42" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AD42"/>
       <c r="AE42" s="5"/>
       <c r="AG42" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AH42"/>
       <c r="AK42" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="AM42" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="AM42" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:39">
       <c r="E43" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>948</v>
-      </c>
       <c r="Q43" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="S43" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>1006</v>
-      </c>
       <c r="U43" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="V43"/>
       <c r="AC43" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AD43"/>
       <c r="AE43" s="5"/>
       <c r="AG43" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AH43" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AK43" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="AM43" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="AM43" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:39">
       <c r="E44" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>950</v>
-      </c>
       <c r="Q44" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S44" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>1009</v>
-      </c>
       <c r="U44" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="V44"/>
       <c r="AC44" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AD44"/>
       <c r="AE44" s="5"/>
       <c r="AG44" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AH44" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AK44" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="AM44" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="AM44" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:39">
       <c r="E45" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>952</v>
-      </c>
       <c r="Q45" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="U45" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="V45" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AC45" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AD45" t="s">
         <v>1103</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>1105</v>
       </c>
       <c r="AE45" s="5"/>
       <c r="AG45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AH45"/>
       <c r="AK45" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AM45" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="AM45" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:39">
       <c r="E46" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>955</v>
-      </c>
       <c r="Q46" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="U46" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="V46" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AG46" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="AH46"/>
       <c r="AK46" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM46" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="AM46" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:39">
       <c r="E47" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>957</v>
-      </c>
       <c r="Q47" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="S47" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>1016</v>
-      </c>
       <c r="U47" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="V47"/>
       <c r="AK47" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="AL47" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
       <c r="E48" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>960</v>
-      </c>
       <c r="Q48" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="U48" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="V48"/>
       <c r="AK48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AL48" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="49" spans="17:38" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="49" spans="17:38">
       <c r="Q49" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="S49" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="R49" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>1021</v>
-      </c>
       <c r="U49" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="V49"/>
       <c r="AK49" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AL49" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="50" spans="17:38" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="50" spans="17:38">
       <c r="Q50" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="U50" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="V50"/>
       <c r="AK50" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="AL50"/>
     </row>
-    <row r="51" spans="17:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="17:38">
       <c r="Q51" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="V51"/>
+    </row>
+    <row r="52" spans="17:38">
+      <c r="Q52" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="U51" t="s">
+      <c r="U52" t="s">
+        <v>1065</v>
+      </c>
+      <c r="V52"/>
+    </row>
+    <row r="53" spans="17:38">
+      <c r="U53" t="s">
         <v>1066</v>
       </c>
-      <c r="V51"/>
-    </row>
-    <row r="52" spans="17:38" x14ac:dyDescent="0.25">
-      <c r="Q52" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="U52" t="s">
+      <c r="V53"/>
+    </row>
+    <row r="54" spans="17:38">
+      <c r="U54" t="s">
         <v>1067</v>
       </c>
-      <c r="V52"/>
-    </row>
-    <row r="53" spans="17:38" x14ac:dyDescent="0.25">
-      <c r="U53" t="s">
+      <c r="V54"/>
+    </row>
+    <row r="55" spans="17:38">
+      <c r="U55" t="s">
         <v>1068</v>
       </c>
-      <c r="V53"/>
-    </row>
-    <row r="54" spans="17:38" x14ac:dyDescent="0.25">
-      <c r="U54" t="s">
+      <c r="V55"/>
+    </row>
+    <row r="56" spans="17:38">
+      <c r="U56" t="s">
         <v>1069</v>
       </c>
-      <c r="V54"/>
-    </row>
-    <row r="55" spans="17:38" x14ac:dyDescent="0.25">
-      <c r="U55" t="s">
+      <c r="V56"/>
+    </row>
+    <row r="57" spans="17:38">
+      <c r="U57" t="s">
         <v>1070</v>
       </c>
-      <c r="V55"/>
-    </row>
-    <row r="56" spans="17:38" x14ac:dyDescent="0.25">
-      <c r="U56" t="s">
+      <c r="V57" t="s">
         <v>1071</v>
       </c>
-      <c r="V56"/>
-    </row>
-    <row r="57" spans="17:38" x14ac:dyDescent="0.25">
-      <c r="U57" t="s">
+    </row>
+    <row r="58" spans="17:38">
+      <c r="U58" t="s">
         <v>1072</v>
       </c>
-      <c r="V57" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="58" spans="17:38" x14ac:dyDescent="0.25">
-      <c r="U58" t="s">
-        <v>1074</v>
-      </c>
       <c r="V58"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27">
       <c r="A113" s="2">
         <v>11</v>
       </c>
@@ -6883,1272 +7514,1777 @@
       <c r="Q113" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U113" s="2">
+        <v>16</v>
+      </c>
+      <c r="Y113" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
       <c r="A114" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="U114" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="W114" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="Y114" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="Z114" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AA114" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="C115" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="I114" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="J114" s="2" t="s">
+      <c r="G115" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="M114" s="2" t="s">
+      <c r="M115" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="U115" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V115" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="W115" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Y115" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="Z115" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AA115" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U116" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="V116" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="W116" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Y116" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AA116" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="A117" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="U117" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="W117" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Y117" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="Z117" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AA117" s="3" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
+      <c r="A118" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="S118" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="U118" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W118" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Y118" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="Z118" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AA118" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
+      <c r="A119" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="M119" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="O114" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="Q114" s="2" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="O115" s="3" t="s">
+      <c r="O119" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="Q115" s="2" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="O116" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="Q116" s="2" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="M117" s="2" t="s">
+      <c r="Q119" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="S119" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="U119" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="W119" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Y119" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Z119" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AA119" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
+      <c r="A120" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="U120" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="W120" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="Y120" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Z120" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AA120" s="3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
+      <c r="A121" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="M121" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="N117" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="O117" s="3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="Q117" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="R117" s="2" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="N118" s="2" t="s">
+      <c r="N121" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="O118" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="M119" s="2" t="s">
+      <c r="O121" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="R121" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="S121" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="U121" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="W121" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Y121" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="Z121" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AA121" s="3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
+      <c r="A122" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="M122" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="O119" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="Q119" s="2" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="N120" s="2" t="s">
+      <c r="O122" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="Q122" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="S122" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="U122" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="W122" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="Y122" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="Z122" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AA122" s="3" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
+      <c r="A123" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="N123" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="O120" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="Q120" s="2" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="N121" s="2" t="s">
+      <c r="O123" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="S123" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="U123" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="W123" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Y123" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="Z123" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AA123" s="3" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
+      <c r="A124" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Q124" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="U124" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="V124" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="W124" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Y124" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="Z124" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AA124" s="3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
+      <c r="A125" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N125" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="O121" s="3" t="s">
+      <c r="O125" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="Q121" s="2" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="Q125" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="S125" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="U125" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="V125" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="W125" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="Y125" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AA125" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
+      <c r="A126" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="S126" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="U126" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="W126" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Y126" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AA126" s="3" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
+      <c r="A127" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="O122" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="Q122" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="N123" s="2" t="s">
+      <c r="C127" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N127" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="O123" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="Q123" s="2" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="O124" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="Q124" s="2" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="N125" s="2" t="s">
+      <c r="O127" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="S127" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="U127" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="V127" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="W127" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Y127" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Z127" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AA127" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
+      <c r="A128" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N128" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="O125" s="3" t="s">
+      <c r="O128" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="S128" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="U128" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="V128" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="W128" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="Y128" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="Z128" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AA128" s="3" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="S129" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="U129" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="W129" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Y129" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="Z129" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AA129" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O130" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="Q125" s="2" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="O126" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Q126" s="2" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F127" s="2" t="s">
+      <c r="Q130" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="S130" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="U130" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="W130" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Y130" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AA130" s="3" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="R131" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="S131" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="U131" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="V131" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="W131" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Y131" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Z131" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AA131" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="A132" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="U132" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="W132" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Y132" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AA132" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
+      <c r="A133" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="O127" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="Q127" s="2" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="O128" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="Q128" s="2" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="K129" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="O129" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="Q129" s="2" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="G133" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="U133" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="W133" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Y133" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AA133" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
+      <c r="A134" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="O130" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="Q130" s="2" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="M131" s="2" t="s">
+      <c r="E134" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="U134" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="V134" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="W134" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Y134" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AA134" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
+      <c r="A135" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="M135" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="O131" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="Q131" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="S131" s="3" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="N132" s="2" t="s">
+      <c r="N135" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="O132" s="3" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="N133" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="O133" s="3" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="O135" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Y135" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Z135" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AA135" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
+      <c r="A136" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="O134" s="3" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="O135" s="3" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I136" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="K136" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="K136" s="3" t="s">
+      <c r="M136" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Y136" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AA136" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
+      <c r="A137" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="K137" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Y137" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AA137" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
+      <c r="A138" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Y138" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="Z138" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AA138" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
+      <c r="A139" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Y139" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AA139" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
+      <c r="A140" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N140" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="O140" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Y140" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA140" s="3" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
+      <c r="A141" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N141" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="O136" s="3" t="s">
+      <c r="O141" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Y141" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Z141" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AA141" s="3" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="G138" s="3" t="s">
+    <row r="142" spans="1:27">
+      <c r="A142" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="I138" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="M138" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="O138" s="3" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="O139" s="3" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="M140" s="2" t="s">
+      <c r="F142" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="M142" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="N140" s="2" t="s">
+      <c r="N142" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="O140" s="3" t="s">
+      <c r="O142" s="3" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C141" s="3" t="s">
+      <c r="Y142" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Z142" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AA142" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
+      <c r="A143" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="M141" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y143" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AA143" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
+      <c r="A144" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="M144" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="N141" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="O141" s="3" t="s">
+      <c r="N144" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O144" s="3" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="O142" s="3" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="M143" s="2" t="s">
+      <c r="Y144" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Z144" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AA144" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="Y145" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Z145" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AA145" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="Y146" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Z146" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AA146" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="A147" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="J148" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="O143" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="O144" s="3" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B146" s="2" t="s">
+      <c r="K148" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="A149" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="A150" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
+      <c r="A151" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="K146" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="K147" s="3" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K148" s="3" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="E151" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
+      <c r="A152" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="K149" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="E152" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
+      <c r="A153" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
+      <c r="A154" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="K151" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K152" s="3" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="K153" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>712</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Nháp.xlsx
+++ b/Nháp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1504">
   <si>
     <t>additional</t>
   </si>
@@ -2067,9 +2067,6 @@
     <t>môi giới, đại lý, chi nhánh</t>
   </si>
   <si>
-    <t>chức vụ</t>
-  </si>
-  <si>
     <t>quyết định</t>
   </si>
   <si>
@@ -2079,13 +2076,7 @@
     <t>quảng bá</t>
   </si>
   <si>
-    <t>kinh doanh</t>
-  </si>
-  <si>
     <t>thuê mướn</t>
-  </si>
-  <si>
-    <t>nghề nghiệp, sự nghiệp</t>
   </si>
   <si>
     <t>kinh nghiệm trước đây</t>
@@ -3975,9 +3966,6 @@
   <si>
     <t>tuyệt vọng</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>making people feel sympathy</t>
   </si>
   <si>
     <t>nhát gan</t>
@@ -4338,6 +4326,342 @@
   </si>
   <si>
     <t>or werd</t>
+  </si>
+  <si>
+    <t>chức vụ, địa vị, vị trí</t>
+  </si>
+  <si>
+    <t>kinh doanh, công việc</t>
+  </si>
+  <si>
+    <t>sự nghiệp</t>
+  </si>
+  <si>
+    <t>kiu ri ớt</t>
+  </si>
+  <si>
+    <t>making people feel sympathy (thương tâm, đáng thương)</t>
+  </si>
+  <si>
+    <t>surround</t>
+  </si>
+  <si>
+    <t>fully wheelchair accessible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unobtrusive </t>
+  </si>
+  <si>
+    <t>complimentary and eco-friendly toiletries</t>
+  </si>
+  <si>
+    <t>restroom</t>
+  </si>
+  <si>
+    <t>humour</t>
+  </si>
+  <si>
+    <t>curtains</t>
+  </si>
+  <si>
+    <t>towels</t>
+  </si>
+  <si>
+    <t>blankets</t>
+  </si>
+  <si>
+    <t>pillow cases</t>
+  </si>
+  <si>
+    <t>planting</t>
+  </si>
+  <si>
+    <t>in fact</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>forefront</t>
+  </si>
+  <si>
+    <t>accessibility</t>
+  </si>
+  <si>
+    <t>disabilities</t>
+  </si>
+  <si>
+    <t>balcony</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>sustainable</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>repurpose</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>fittings</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>landfill</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>sparingly</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>faucet</t>
+  </si>
+  <si>
+    <t>brush your teeth</t>
+  </si>
+  <si>
+    <t>showers</t>
+  </si>
+  <si>
+    <t>laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh </t>
+  </si>
+  <si>
+    <t>inconvenience</t>
+  </si>
+  <si>
+    <t>to their fullest</t>
+  </si>
+  <si>
+    <t>sheets</t>
+  </si>
+  <si>
+    <t>ga trải giường</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>chất thải, sự lãng phí</t>
+  </si>
+  <si>
+    <t>sơ round</t>
+  </si>
+  <si>
+    <t>wiu chair</t>
+  </si>
+  <si>
+    <t>un ob tru sive</t>
+  </si>
+  <si>
+    <t>hiu mer</t>
+  </si>
+  <si>
+    <t>thao ồ</t>
+  </si>
+  <si>
+    <t>re clem</t>
+  </si>
+  <si>
+    <t>prao</t>
+  </si>
+  <si>
+    <t>bal co ny</t>
+  </si>
+  <si>
+    <t>fen s</t>
+  </si>
+  <si>
+    <t>sus tain able</t>
+  </si>
+  <si>
+    <t>re per pes</t>
+  </si>
+  <si>
+    <t>fer ni cher</t>
+  </si>
+  <si>
+    <t>ser men t</t>
+  </si>
+  <si>
+    <t>fa bric</t>
+  </si>
+  <si>
+    <t>spe ring ly</t>
+  </si>
+  <si>
+    <t>in ker rage</t>
+  </si>
+  <si>
+    <t>fau cet</t>
+  </si>
+  <si>
+    <t>lon d ri</t>
+  </si>
+  <si>
+    <t>wait s t</t>
+  </si>
+  <si>
+    <t>bền vững</t>
+  </si>
+  <si>
+    <t>đặc tính, tính chất</t>
+  </si>
+  <si>
+    <t>tái chế</t>
+  </si>
+  <si>
+    <t>tái sử dụng</t>
+  </si>
+  <si>
+    <t>đồ nội thất</t>
+  </si>
+  <si>
+    <t>phụ kiện</t>
+  </si>
+  <si>
+    <t>viên gạch</t>
+  </si>
+  <si>
+    <t>bãi rác</t>
+  </si>
+  <si>
+    <t>xi măng</t>
+  </si>
+  <si>
+    <t>đồ dùng = vải</t>
+  </si>
+  <si>
+    <t>kơ từn</t>
+  </si>
+  <si>
+    <t>rèm cửa</t>
+  </si>
+  <si>
+    <t>chăn</t>
+  </si>
+  <si>
+    <t>vỏ gối</t>
+  </si>
+  <si>
+    <t>khăn tắm</t>
+  </si>
+  <si>
+    <t>trồng cây</t>
+  </si>
+  <si>
+    <t>trên thực tế</t>
+  </si>
+  <si>
+    <t>tự hào</t>
+  </si>
+  <si>
+    <t>đi đầu</t>
+  </si>
+  <si>
+    <t>khả năng tiếp cận</t>
+  </si>
+  <si>
+    <t>khăn ăn</t>
+  </si>
+  <si>
+    <t>reclaim</t>
+  </si>
+  <si>
+    <t>ban công</t>
+  </si>
+  <si>
+    <t>hàng rào</t>
+  </si>
+  <si>
+    <t>hết mình</t>
+  </si>
+  <si>
+    <t>khuyết tật</t>
+  </si>
+  <si>
+    <t>vây quanh</t>
+  </si>
+  <si>
+    <t>hoàn toàn có thể use xe lăn</t>
+  </si>
+  <si>
+    <t>ko phô trương</t>
+  </si>
+  <si>
+    <t>com pli - I cô</t>
+  </si>
+  <si>
+    <t>dụng cụ vệ sinh cá nhân miễn phí và thân thiện với môi trường</t>
+  </si>
+  <si>
+    <t>phòng vệ sinh</t>
+  </si>
+  <si>
+    <t>located in</t>
+  </si>
+  <si>
+    <t>nằm ở</t>
+  </si>
+  <si>
+    <t>tiết kiệm</t>
+  </si>
+  <si>
+    <t>giặt ủi</t>
+  </si>
+  <si>
+    <t>khuyến khích</t>
+  </si>
+  <si>
+    <t>vòi sen</t>
+  </si>
+  <si>
+    <t>vòi nước</t>
+  </si>
+  <si>
+    <t>đánh răng</t>
+  </si>
+  <si>
+    <t>tươi mới</t>
+  </si>
+  <si>
+    <t>bất tiện</t>
+  </si>
+  <si>
+    <t>nap kừn</t>
+  </si>
+  <si>
+    <t>hài hước, làm hài lòng</t>
+  </si>
+  <si>
+    <t>footpath</t>
+  </si>
+  <si>
+    <t>đòi lại, khai hoang, to treat waste materials in order to get useful materials, such as glass or paper, that can be used again</t>
+  </si>
+  <si>
+    <t>fabric</t>
+  </si>
+  <si>
+    <t>napkin</t>
   </si>
 </sst>
 </file>
@@ -4687,10 +5011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM154"/>
+  <dimension ref="A1:AM156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA137" sqref="AA137"/>
+    <sheetView tabSelected="1" topLeftCell="AB136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF145" sqref="AF145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4723,8 +5047,8 @@
     <col min="26" max="26" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.140625" style="3" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="2"/>
-    <col min="29" max="29" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.140625" style="3" customWidth="1"/>
     <col min="32" max="32" width="9.140625" style="2"/>
     <col min="33" max="33" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -4991,7 +5315,7 @@
         <v>127</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>128</v>
@@ -5098,7 +5422,7 @@
         <v>517</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>518</v>
@@ -5293,10 +5617,10 @@
         <v>522</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -5358,7 +5682,7 @@
         <v>523</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="AM10" s="3" t="s">
         <v>524</v>
@@ -5679,7 +6003,7 @@
         <v>145</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>146</v>
@@ -6105,7 +6429,7 @@
         <v>545</v>
       </c>
       <c r="AL22" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AM22" s="3" t="s">
         <v>546</v>
@@ -6267,7 +6591,7 @@
         <v>337</v>
       </c>
       <c r="Y25" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="Z25"/>
       <c r="AC25" s="2" t="s">
@@ -6321,13 +6645,13 @@
         <v>507</v>
       </c>
       <c r="U26" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="V26" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="Y26" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="Z26"/>
       <c r="AC26" s="2" t="s">
@@ -6381,14 +6705,14 @@
         <v>276</v>
       </c>
       <c r="U27" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="V27"/>
       <c r="Y27" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="Z27" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="AC27" s="2" t="s">
         <v>428</v>
@@ -6435,13 +6759,13 @@
         <v>278</v>
       </c>
       <c r="U28" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="V28" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="Y28" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="Z28"/>
       <c r="AC28" s="2" t="s">
@@ -6489,13 +6813,13 @@
         <v>286</v>
       </c>
       <c r="U29" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="V29" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="Y29" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="Z29"/>
       <c r="AC29" s="2" t="s">
@@ -6549,14 +6873,14 @@
         <v>281</v>
       </c>
       <c r="U30" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="V30"/>
       <c r="Y30" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="Z30" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AC30" s="2" t="s">
         <v>433</v>
@@ -6574,7 +6898,7 @@
         <v>562</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AM30" s="3" t="s">
         <v>565</v>
@@ -6591,7 +6915,7 @@
         <v>111</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>171</v>
@@ -6609,14 +6933,14 @@
         <v>283</v>
       </c>
       <c r="U31" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="V31"/>
       <c r="Y31" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="Z31" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="AC31" s="2" t="s">
         <v>435</v>
@@ -6660,16 +6984,16 @@
         <v>285</v>
       </c>
       <c r="U32" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="V32" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="Y32" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="Z32" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="AC32" s="2" t="s">
         <v>437</v>
@@ -6704,34 +7028,34 @@
         <v>115</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="U33" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="V33" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="Y33" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="Z33" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AC33" t="s">
         <v>1085</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>1088</v>
       </c>
       <c r="AD33"/>
       <c r="AE33" s="5"/>
@@ -6765,37 +7089,37 @@
         <v>121</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="U34" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="V34" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="Y34" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AC34" t="s">
         <v>1086</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>1089</v>
       </c>
       <c r="AD34"/>
       <c r="AE34" s="5"/>
@@ -6814,13 +7138,13 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="2" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>117</v>
@@ -6832,26 +7156,26 @@
         <v>118</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="U35" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="V35"/>
       <c r="AC35" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="AD35"/>
       <c r="AE35" s="5"/>
@@ -6870,10 +7194,10 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>119</v>
@@ -6885,29 +7209,29 @@
         <v>120</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="U36" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="V36"/>
       <c r="AC36" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="AD36"/>
       <c r="AE36" s="5"/>
@@ -6926,43 +7250,43 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="U37" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="V37" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AC37" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="AD37" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="AG37" s="2" t="s">
         <v>493</v>
@@ -6979,57 +7303,57 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>933</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U38" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="V38" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="AC38" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="AD38"/>
       <c r="AG38" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="AH38"/>
       <c r="AK38" s="2" t="s">
         <v>578</v>
       </c>
       <c r="AL38" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AM38" s="3" t="s">
         <v>579</v>
@@ -7037,38 +7361,38 @@
     </row>
     <row r="39" spans="1:39">
       <c r="E39" s="2" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="Q39" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="S39" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>994</v>
-      </c>
       <c r="U39" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="V39"/>
       <c r="AC39" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="AD39" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="AG39" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AH39" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="AK39" s="2" t="s">
         <v>580</v>
@@ -7079,35 +7403,35 @@
     </row>
     <row r="40" spans="1:39">
       <c r="E40" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="U40" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="V40"/>
       <c r="AC40" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AD40"/>
       <c r="AE40" s="5"/>
       <c r="AG40" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AH40"/>
       <c r="AK40" s="2" t="s">
         <v>582</v>
       </c>
       <c r="AL40" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AM40" s="3" t="s">
         <v>418</v>
@@ -7115,43 +7439,43 @@
     </row>
     <row r="41" spans="1:39">
       <c r="E41" s="2" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="U41" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="V41" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="AC41" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AD41"/>
       <c r="AE41" s="5"/>
       <c r="AG41" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AH41"/>
       <c r="AK41" s="2" t="s">
         <v>583</v>
       </c>
       <c r="AL41" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="AM41" s="3" t="s">
         <v>584</v>
@@ -7159,31 +7483,31 @@
     </row>
     <row r="42" spans="1:39">
       <c r="E42" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="U42" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="V42"/>
       <c r="AC42" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="AD42"/>
       <c r="AE42" s="5"/>
       <c r="AG42" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="AH42"/>
       <c r="AK42" s="2" t="s">
@@ -7195,37 +7519,37 @@
     </row>
     <row r="43" spans="1:39">
       <c r="E43" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="U43" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="V43"/>
       <c r="AC43" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="AD43"/>
       <c r="AE43" s="5"/>
       <c r="AG43" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="AH43" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="AK43" s="2" t="s">
         <v>587</v>
@@ -7236,34 +7560,34 @@
     </row>
     <row r="44" spans="1:39">
       <c r="E44" s="2" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="U44" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="V44"/>
       <c r="AC44" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="AD44"/>
       <c r="AE44" s="5"/>
       <c r="AG44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AH44" t="s">
         <v>1112</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>1115</v>
       </c>
       <c r="AK44" s="2" t="s">
         <v>589</v>
@@ -7274,32 +7598,32 @@
     </row>
     <row r="45" spans="1:39">
       <c r="E45" s="2" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="U45" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="V45" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="AC45" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="AD45" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AE45" s="5"/>
       <c r="AG45" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="AH45"/>
       <c r="AK45" s="2" t="s">
@@ -7311,31 +7635,31 @@
     </row>
     <row r="46" spans="1:39">
       <c r="E46" s="2" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="U46" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="V46" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="AG46" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="AH46"/>
       <c r="AK46" s="2" t="s">
@@ -7347,158 +7671,158 @@
     </row>
     <row r="47" spans="1:39">
       <c r="E47" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="U47" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="V47"/>
       <c r="AK47" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="AL47" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="E48" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="U48" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="V48"/>
       <c r="AK48" t="s">
         <v>562</v>
       </c>
       <c r="AL48" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="49" spans="17:38">
       <c r="Q49" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="U49" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="V49"/>
       <c r="AK49" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="AL49" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="50" spans="17:38">
       <c r="Q50" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="U50" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="V50"/>
       <c r="AK50" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="AL50"/>
     </row>
     <row r="51" spans="17:38">
       <c r="Q51" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="U51" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="V51"/>
     </row>
     <row r="52" spans="17:38">
       <c r="Q52" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="U52" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="V52"/>
     </row>
     <row r="53" spans="17:38">
       <c r="U53" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="V53"/>
     </row>
     <row r="54" spans="17:38">
       <c r="U54" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="V54"/>
     </row>
     <row r="55" spans="17:38">
       <c r="U55" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="V55"/>
     </row>
     <row r="56" spans="17:38">
       <c r="U56" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="V56"/>
     </row>
     <row r="57" spans="17:38">
       <c r="U57" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="V57" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="58" spans="17:38">
       <c r="U58" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="V58"/>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:31">
       <c r="A113" s="2">
         <v>11</v>
       </c>
@@ -7520,8 +7844,11 @@
       <c r="Y113" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:27">
+      <c r="AC113" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31">
       <c r="A114" s="2" t="s">
         <v>633</v>
       </c>
@@ -7529,52 +7856,61 @@
         <v>632</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="I114" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="M114" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="Y114" s="2" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="Z114" s="2" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="AA114" s="3" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27">
+        <v>1360</v>
+      </c>
+      <c r="AC114" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AD114" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AE114" s="3" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31">
       <c r="A115" s="2" t="s">
         <v>634</v>
       </c>
@@ -7582,52 +7918,61 @@
         <v>635</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="O115" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="V115" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="Y115" s="2" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="Z115" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="AA115" s="3" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27">
+        <v>1359</v>
+      </c>
+      <c r="AC115" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AD115" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AE115" s="3" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31">
       <c r="A116" s="2" t="s">
         <v>636</v>
       </c>
@@ -7635,52 +7980,61 @@
         <v>637</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="R116" s="2" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="V116" s="2" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="Y116" s="2" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="AA116" s="3" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27">
+        <v>1361</v>
+      </c>
+      <c r="AC116" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AD116" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AE116" s="3" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31">
       <c r="A117" s="2" t="s">
         <v>638</v>
       </c>
@@ -7688,55 +8042,58 @@
         <v>675</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="R117" s="2" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="U117" s="2" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="W117" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="Y117" s="2" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="Z117" s="2" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="AA117" s="3" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27">
+        <v>1362</v>
+      </c>
+      <c r="AC117" s="2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31">
       <c r="A118" s="2" t="s">
         <v>639</v>
       </c>
@@ -7744,55 +8101,67 @@
         <v>676</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>1216</v>
+        <v>1213</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>1395</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="U118" s="2" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="V118" s="2" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="W118" s="3" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="Y118" s="2" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="Z118" s="2" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="AA118" s="3" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27">
+        <v>1363</v>
+      </c>
+      <c r="AC118" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AD118" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AE118" s="3" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31">
       <c r="A119" s="2" t="s">
         <v>640</v>
       </c>
@@ -7800,49 +8169,55 @@
         <v>677</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="Y119" s="2" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="Z119" s="2" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="AA119" s="3" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27">
+        <v>1364</v>
+      </c>
+      <c r="AC119" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AE119" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31">
       <c r="A120" s="2" t="s">
         <v>641</v>
       </c>
@@ -7850,49 +8225,58 @@
         <v>678</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="U120" s="2" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="Y120" s="2" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="Z120" s="2" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="AA120" s="3" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27">
+        <v>1365</v>
+      </c>
+      <c r="AC120" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AD120" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AE120" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31">
       <c r="A121" s="2" t="s">
         <v>642</v>
       </c>
@@ -7900,1387 +8284,1658 @@
         <v>679</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="W121" s="3" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Y121" s="2" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="Z121" s="2" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="AA121" s="3" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27">
+        <v>1366</v>
+      </c>
+      <c r="AC121" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AD121" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AE121" s="3" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31">
       <c r="A122" s="2" t="s">
         <v>643</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>680</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="U122" s="2" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="Y122" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="Z122" s="2" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="AA122" s="3" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27">
+        <v>1367</v>
+      </c>
+      <c r="AC122" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AD122" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AE122" s="3" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31">
       <c r="A123" s="2" t="s">
         <v>644</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>681</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="U123" s="2" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="V123" s="2" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W123" s="3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="Y123" s="2" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="Z123" s="2" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="AA123" s="3" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27">
+        <v>1368</v>
+      </c>
+      <c r="AC123" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AE123" s="3" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31">
       <c r="A124" s="2" t="s">
         <v>645</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>682</v>
+        <v>1392</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="V124" s="2" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="Y124" s="2" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="Z124" s="2" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="AA124" s="3" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27">
+        <v>1369</v>
+      </c>
+      <c r="AC124" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AE124" s="3" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31">
       <c r="A125" s="2" t="s">
         <v>646</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="O125" s="3" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="V125" s="2" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="W125" s="3" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="Y125" s="2" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="AA125" s="3" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27">
+        <v>976</v>
+      </c>
+      <c r="AC125" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AE125" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31">
       <c r="A126" s="2" t="s">
         <v>647</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="U126" s="2" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="W126" s="3" t="s">
-        <v>1297</v>
+        <v>1396</v>
       </c>
       <c r="Y126" s="2" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="AA126" s="3" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27">
+        <v>1370</v>
+      </c>
+      <c r="AC126" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AD126" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AE126" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31">
       <c r="A127" s="2" t="s">
         <v>648</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="U127" s="2" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="V127" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="W127" s="3" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="Y127" s="2" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="Z127" s="2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="AA127" s="3" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27">
+        <v>1371</v>
+      </c>
+      <c r="AC127" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AE127" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31">
       <c r="A128" s="2" t="s">
         <v>649</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="R128" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="U128" s="2" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="V128" s="2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="W128" s="3" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="Y128" s="2" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="Z128" s="2" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="AA128" s="3" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
+        <v>1372</v>
+      </c>
+      <c r="AC128" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AE128" s="3" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31">
       <c r="A129" s="2" t="s">
         <v>650</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>686</v>
+        <v>1393</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="I129" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="J129" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>858</v>
-      </c>
       <c r="K129" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="O129" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="R129" s="2" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="U129" s="2" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="W129" s="3" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="Y129" s="2" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="Z129" s="2" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="AA129" s="3" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
+        <v>1373</v>
+      </c>
+      <c r="AC129" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AD129" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AE129" s="3" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31">
       <c r="A130" s="2" t="s">
         <v>651</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="O130" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="S130" s="3" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="U130" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="W130" s="3" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="Y130" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="AA130" s="3" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27">
+        <v>1374</v>
+      </c>
+      <c r="AC130" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AE130" s="3" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31">
       <c r="A131" s="2" t="s">
         <v>652</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>688</v>
+        <v>1394</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="O131" s="3" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="S131" s="3" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="U131" s="2" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="V131" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="W131" s="3" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="Y131" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="Z131" s="2" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="AA131" s="3" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27">
+        <v>1375</v>
+      </c>
+      <c r="AC131" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AE131" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31">
       <c r="A132" s="2" t="s">
         <v>653</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="U132" s="2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="W132" s="3" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="Y132" s="2" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="AA132" s="3" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27">
+        <v>1376</v>
+      </c>
+      <c r="AC132" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AE132" s="3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31">
       <c r="A133" s="2" t="s">
         <v>654</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>487</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="U133" s="2" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="W133" s="3" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="Y133" s="2" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="AA133" s="3" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27">
+        <v>1377</v>
+      </c>
+      <c r="AC133" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AD133" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AE133" s="3" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31">
       <c r="A134" s="2" t="s">
         <v>656</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="U134" s="2" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="V134" s="2" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="W134" s="3" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="Y134" s="2" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="AA134" s="3" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27">
+        <v>1378</v>
+      </c>
+      <c r="AC134" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AD134" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AE134" s="3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31">
       <c r="A135" s="2" t="s">
         <v>655</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="Y135" s="2" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="Z135" s="2" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="AA135" s="3" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27">
+        <v>1379</v>
+      </c>
+      <c r="AC135" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AD135" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AE135" s="3" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31">
       <c r="A136" s="2" t="s">
         <v>657</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="Y136" s="2" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="AA136" s="3" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27">
+        <v>1380</v>
+      </c>
+      <c r="AC136" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AE136" s="3" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31">
       <c r="A137" s="2" t="s">
         <v>658</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="Y137" s="2" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="AA137" s="3" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27">
+        <v>1381</v>
+      </c>
+      <c r="AC137" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AE137" s="3" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31">
       <c r="A138" s="2" t="s">
         <v>659</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="Y138" s="2" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="Z138" s="2" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="AA138" s="3" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27">
+        <v>1382</v>
+      </c>
+      <c r="AC138" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AD138" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AE138" s="3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31">
       <c r="A139" s="2" t="s">
         <v>660</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="Y139" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="AA139" s="3" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27">
+        <v>1383</v>
+      </c>
+      <c r="AC139" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AD139" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AE139" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31">
       <c r="A140" s="2" t="s">
         <v>661</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="Y140" s="2" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="Z140" s="2" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="AA140" s="3" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27">
+        <v>1390</v>
+      </c>
+      <c r="AC140" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AE140" s="3" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31">
       <c r="A141" s="2" t="s">
         <v>662</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="O141" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="Y141" s="2" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="Z141" s="2" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="AA141" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27">
+        <v>1201</v>
+      </c>
+      <c r="AC141" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AE141" s="3" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31">
       <c r="A142" s="2" t="s">
         <v>663</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="O142" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="Y142" s="2" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="Z142" s="2" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="AA142" s="3" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27">
+        <v>1384</v>
+      </c>
+      <c r="AC142" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AE142" s="3" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31">
       <c r="A143" s="2" t="s">
         <v>664</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="O143" s="3" t="s">
         <v>113</v>
       </c>
       <c r="Y143" s="2" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="AA143" s="3" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27">
+        <v>1385</v>
+      </c>
+      <c r="AC143" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AD143" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AE143" s="3" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31">
       <c r="A144" s="2" t="s">
         <v>665</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="Y144" s="2" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="Z144" s="2" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="AA144" s="3" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
+        <v>1386</v>
+      </c>
+      <c r="AC144" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AD144" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AE144" s="3" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31">
       <c r="A145" s="2" t="s">
         <v>666</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J145" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>898</v>
-      </c>
       <c r="K145" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="Y145" s="2" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="Z145" s="2" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="AA145" s="3" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
+        <v>1387</v>
+      </c>
+      <c r="AC145" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AD145" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AE145" s="3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31">
       <c r="A146" s="2" t="s">
         <v>667</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="Y146" s="2" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="Z146" s="2" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="AA146" s="3" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27">
+        <v>1388</v>
+      </c>
+      <c r="AC146" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AD146" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AE146" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31">
       <c r="A147" s="2" t="s">
         <v>668</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E147" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="G147" s="3" t="s">
-        <v>793</v>
-      </c>
       <c r="I147" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27">
+        <v>899</v>
+      </c>
+      <c r="AC147" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AD147" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AE147" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31">
       <c r="A148" s="2" t="s">
         <v>669</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC148" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AE148" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31">
+      <c r="A149" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="C149" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="G149" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="I149" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="K149" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="K148" s="3" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27">
-      <c r="A149" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="K149" s="3" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27">
+      <c r="AC149" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AE149" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31">
       <c r="A150" s="2" t="s">
         <v>670</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27">
+        <v>907</v>
+      </c>
+      <c r="AC150" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AD150" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AE150" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31">
       <c r="A151" s="2" t="s">
         <v>671</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27">
+        <v>909</v>
+      </c>
+      <c r="AC151" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AE151" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31">
       <c r="A152" s="2" t="s">
         <v>672</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27">
+        <v>911</v>
+      </c>
+      <c r="AC152" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AE152" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31">
       <c r="A153" s="2" t="s">
         <v>673</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27">
+        <v>912</v>
+      </c>
+      <c r="AC153" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AD153" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AE153" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31">
       <c r="A154" s="2" t="s">
         <v>674</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
+      </c>
+      <c r="AC154" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AD154" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AE154" s="3" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31">
+      <c r="AC155" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AE155" s="3" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31">
+      <c r="AC156" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AE156" s="3" t="s">
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
